--- a/EHS2019/EHS/ExcelGenerator/Template/eHSM0002-SUPERRMB_Template.xlsx
+++ b/EHS2019/EHS/ExcelGenerator/Template/eHSM0002-SUPERRMB_Template.xlsx
@@ -1,24 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\trunk\EHS2019\EHS\ExcelGenerator\bin\Debug\Template\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-15" yWindow="6015" windowWidth="19260" windowHeight="6075"/>
   </bookViews>
   <sheets>
     <sheet name="Content" sheetId="1" r:id="rId1"/>
     <sheet name="Summary" sheetId="2" r:id="rId2"/>
-    <sheet name="01" sheetId="3" r:id="rId3"/>
-    <sheet name="Remark" sheetId="4" r:id="rId4"/>
-    <sheet name="Change History" sheetId="5" r:id="rId5"/>
+    <sheet name="01" sheetId="7" r:id="rId3"/>
+    <sheet name="02" sheetId="6" r:id="rId4"/>
+    <sheet name="03" sheetId="3" r:id="rId5"/>
+    <sheet name="Remark" sheetId="4" r:id="rId6"/>
+    <sheet name="Change History" sheetId="5" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -49,10 +56,6 @@
   <si>
     <t>Sub Report Name</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reimbursement Data File</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CRE13-018</t>
@@ -186,7 +189,47 @@
     <t>计划代码</t>
   </si>
   <si>
+    <t>CRE15-006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rename of eHS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eHS(S)M0002-02</t>
+  </si>
+  <si>
     <t>eHS(S)M0002-01</t>
+  </si>
+  <si>
+    <t>eHS(S)M0002-03</t>
+  </si>
+  <si>
+    <t>号码</t>
+  </si>
+  <si>
+    <t>服务提供者号码</t>
+  </si>
+  <si>
+    <t>交易数目</t>
+  </si>
+  <si>
+    <t>CRE17-004</t>
+  </si>
+  <si>
+    <t>To generate a new Detailed Payment Analysis Report (DPAR) on EHCP basis for monthly reimbursement exercise</t>
+  </si>
+  <si>
+    <t>Reimbursement Data File (on EHCP Basis)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reimbursement Data File (on Practice Basis)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reimbursement Data File (on Transaction Basis)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -201,23 +244,47 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>付款数据文件</t>
+      <t>付款数据文件(按服务提供者分类)</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CRE15-006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rename of eHS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">eHS(S)M0002-02: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>付款数据文件(按执业处所分类)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">eHS(S)M0002-03: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>付款数据文件(按交易分类)</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="7">
     <numFmt numFmtId="176" formatCode="d\ mmm\ yyyy\ h:mm"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
@@ -295,7 +362,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -307,9 +374,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -359,6 +423,21 @@
     <xf numFmtId="182" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="182" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -370,6 +449,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -418,7 +500,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -453,7 +535,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -662,7 +744,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -683,15 +765,31 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -711,66 +809,66 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="18.625" style="9" customWidth="1"/>
     <col min="3" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="13"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="12"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="14"/>
+      <c r="B13" s="13"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="14"/>
+      <c r="B15" s="13"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="14"/>
+      <c r="B17" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -781,6 +879,145 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.5" style="9" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="25.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="16.75" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="26" customWidth="1"/>
+    <col min="6" max="6" width="11.625" style="27" customWidth="1"/>
+    <col min="7" max="7" width="16.625" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="25" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+    </row>
+    <row r="4" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="25.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="25.125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="21.375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="20.625" style="28" customWidth="1"/>
+    <col min="6" max="6" width="11.625" style="26" customWidth="1"/>
+    <col min="7" max="7" width="11.625" style="27" customWidth="1"/>
+    <col min="8" max="8" width="16.625" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="25" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+    </row>
+    <row r="4" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
@@ -792,91 +1029,82 @@
     <col min="2" max="2" width="25.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="25.125" style="3" customWidth="1"/>
     <col min="4" max="4" width="21.375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="20.625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="20.625" style="18" customWidth="1"/>
     <col min="6" max="6" width="20.375" style="3" customWidth="1"/>
     <col min="7" max="7" width="11.625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="11.625" style="18" customWidth="1"/>
-    <col min="9" max="9" width="14.625" style="16" customWidth="1"/>
-    <col min="10" max="10" width="23.5" style="25" customWidth="1"/>
+    <col min="8" max="8" width="11.625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="14.625" style="15" customWidth="1"/>
+    <col min="10" max="10" width="23.5" style="24" customWidth="1"/>
     <col min="11" max="11" width="16.625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
-      <c r="J1" s="8"/>
+      <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
-      <c r="J2" s="8"/>
-    </row>
-    <row r="3" spans="1:14" s="6" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:14" s="5" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="C3" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="D3" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="E3" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="F3" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="G3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="H3" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="I3" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="J3" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="K3" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="4" t="str">
-        <f>IF(LEN(L4) &gt; 0,"Subsidy","")</f>
-        <v/>
-      </c>
-      <c r="M3" s="4" t="str">
-        <f>IF(LEN(M4) &gt; 0,"RCH Code","")</f>
-        <v/>
-      </c>
-      <c r="N3" s="4" t="str">
-        <f>IF(LEN(N4) &gt; 0,"RCH Type", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+    </row>
+    <row r="4" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -886,7 +1114,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B33"/>
   <sheetViews>
@@ -899,140 +1127,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="11" t="s">
+      <c r="A1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1042,9 +1270,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1063,16 +1291,16 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1081,12 +1309,12 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>41821</v>
       </c>
     </row>
@@ -1095,12 +1323,12 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>42213</v>
       </c>
     </row>
@@ -1109,13 +1337,27 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="9">
+        <v>27</v>
+      </c>
+      <c r="D6" s="8">
         <v>42430</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="8">
+        <v>44103</v>
       </c>
     </row>
   </sheetData>
